--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921278.6552070151</v>
+        <v>917506.4538733818</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33157021.71754204</v>
+        <v>33157021.71754205</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6010015.580922046</v>
+        <v>6010015.580922044</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>29.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343098</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.39025468426207</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.31500304752734</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430769696</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752733</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.18661160258023</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
     </row>
     <row r="10">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.04771755488812</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.34253712937394</v>
+        <v>20.34253712937393</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>16.04771755488815</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>289.0012590013202</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>357.4185962837768</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.26811891357561</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>51.77925078256411</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>400.4098859345455</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,7 +1624,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>176.1446634785929</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>30.39223119676581</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>101.234774041739</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>116.6395830120775</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>388.1111211665038</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.03117915389093</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.96684102370052</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>128.3640563204297</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>49.34995949258614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995457</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>399.211656207125</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>119.9624030545383</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>388.4728367776327</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>67.73543989321421</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>42.00892107540311</v>
       </c>
       <c r="H29" t="n">
-        <v>42.50170496326956</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>257.8507722241342</v>
       </c>
       <c r="X32" t="n">
-        <v>369.1882837951321</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>160.0137520546666</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>124.955498477721</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>385.6185601499853</v>
       </c>
       <c r="H38" t="n">
-        <v>105.5188043066315</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>60.07073011995545</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>126.5553709841806</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>185.6587756758353</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>213.5382021707739</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -4036,16 +4036,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>282.7227915429499</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>196.3272109511617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>82.17043591154993</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.426178331046959</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E2" t="n">
         <v>27.13222579419039</v>
       </c>
       <c r="F2" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G2" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H2" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I2" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>44.20705326085425</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
-        <v>44.20705326085425</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L2" t="n">
-        <v>44.20705326085425</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>83.45630615600524</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N2" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O2" t="n">
-        <v>165.2600121901094</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P2" t="n">
-        <v>165.2600121901094</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q2" t="n">
-        <v>165.2600121901094</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D3" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E3" t="n">
-        <v>86.76985286506955</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F3" t="n">
-        <v>45.03752655443587</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G3" t="n">
-        <v>45.03752655443587</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
         <v>29.36887340425979</v>
@@ -4415,19 +4415,19 @@
         <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>42.55445313895317</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
-        <v>83.45630615600524</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3581591730573</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O3" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P3" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q3" t="n">
         <v>124.3581591730573</v>
@@ -4436,25 +4436,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C4" t="n">
-        <v>86.76985286506955</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D4" t="n">
-        <v>86.76985286506955</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E4" t="n">
-        <v>86.76985286506955</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443587</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443587</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H4" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I4" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>44.20705326085425</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085425</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L4" t="n">
-        <v>85.10890627790631</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44.20705326085427</v>
+      </c>
+      <c r="O4" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="P4" t="n">
         <v>126.0107592949584</v>
-      </c>
-      <c r="N4" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O4" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4521,19 +4521,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V4" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W4" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X4" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4555,55 +4555,55 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085425</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085425</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085425</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085425</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085425</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20705326085425</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
         <v>164.4449616415467</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131183</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>124.3581591730573</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
-        <v>124.3581591730573</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N6" t="n">
-        <v>124.3581591730573</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O6" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>81.79535956884197</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="U6" t="n">
-        <v>81.79535956884197</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V6" t="n">
-        <v>81.79535956884197</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W6" t="n">
-        <v>40.0630332582083</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143.8421908954812</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C7" t="n">
-        <v>143.8421908954812</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D7" t="n">
-        <v>102.1098645848475</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E7" t="n">
-        <v>60.37753827421387</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>18.64521196358019</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>44.20705326085425</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085425</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085425</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085425</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>44.20705326085425</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>83.45630615600521</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>143.8421908954812</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>143.8421908954812</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T7" t="n">
-        <v>143.8421908954812</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>143.8421908954812</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="V7" t="n">
-        <v>143.8421908954812</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="W7" t="n">
-        <v>143.8421908954812</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X7" t="n">
-        <v>143.8421908954812</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y7" t="n">
-        <v>143.8421908954812</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="8">
@@ -4783,64 +4783,64 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>27.1322257941904</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.30520024380219</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>4.526214736577073</v>
+        <v>4.526214736577082</v>
       </c>
       <c r="J8" t="n">
-        <v>8.113598271962239</v>
+        <v>44.76007240953676</v>
       </c>
       <c r="K8" t="n">
-        <v>13.4901562582566</v>
+        <v>50.13663039583115</v>
       </c>
       <c r="L8" t="n">
-        <v>20.16025186803341</v>
+        <v>56.806726005608</v>
       </c>
       <c r="M8" t="n">
-        <v>27.58201842374351</v>
+        <v>64.22849256131815</v>
       </c>
       <c r="N8" t="n">
-        <v>35.12387692154304</v>
+        <v>71.77035105911771</v>
       </c>
       <c r="O8" t="n">
-        <v>42.55445313895315</v>
+        <v>78.89191417666149</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600521</v>
+        <v>119.7937671937136</v>
       </c>
       <c r="Q8" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="R8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884197</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>81.79535956884197</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>81.79535956884197</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>40.0630332582083</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>30.14750370473131</v>
+        <v>30.14750370473132</v>
       </c>
       <c r="J9" t="n">
-        <v>71.04935672178337</v>
+        <v>32.2841247623692</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9512097388354</v>
+        <v>35.93595046586734</v>
       </c>
       <c r="L9" t="n">
-        <v>116.8615400604715</v>
+        <v>69.46625383371133</v>
       </c>
       <c r="M9" t="n">
-        <v>122.5916639405021</v>
+        <v>110.3681068507634</v>
       </c>
       <c r="N9" t="n">
-        <v>128.4734471491213</v>
+        <v>151.2699598678155</v>
       </c>
       <c r="O9" t="n">
-        <v>133.8541296853862</v>
+        <v>156.6506424040803</v>
       </c>
       <c r="P9" t="n">
-        <v>138.1726017900905</v>
+        <v>160.9691145087847</v>
       </c>
       <c r="Q9" t="n">
-        <v>141.0593860276604</v>
+        <v>163.8558987463546</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="V9" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="U9" t="n">
-        <v>81.79535956884197</v>
-      </c>
-      <c r="V9" t="n">
-        <v>81.79535956884197</v>
-      </c>
       <c r="W9" t="n">
-        <v>81.79535956884197</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>81.79535956884197</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884197</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.7119948877114</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>144.7119948877114</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>144.7119948877114</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>86.76985286506954</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085425</v>
+        <v>4.64564763183041</v>
       </c>
       <c r="K10" t="n">
-        <v>85.1089062779063</v>
+        <v>45.54750064888248</v>
       </c>
       <c r="L10" t="n">
-        <v>126.0107592949583</v>
+        <v>48.36628380225957</v>
       </c>
       <c r="M10" t="n">
-        <v>155.7981117383674</v>
+        <v>51.3382954149342</v>
       </c>
       <c r="N10" t="n">
-        <v>158.6994555576652</v>
+        <v>81.86869385162979</v>
       </c>
       <c r="O10" t="n">
-        <v>161.3793161708918</v>
+        <v>122.7705468686819</v>
       </c>
       <c r="P10" t="n">
         <v>163.6723998857339</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>144.7119948877114</v>
+        <v>144.7119948877115</v>
       </c>
       <c r="S10" t="n">
-        <v>144.7119948877114</v>
+        <v>144.7119948877115</v>
       </c>
       <c r="T10" t="n">
-        <v>144.7119948877114</v>
+        <v>144.7119948877115</v>
       </c>
       <c r="U10" t="n">
-        <v>144.7119948877114</v>
+        <v>144.7119948877115</v>
       </c>
       <c r="V10" t="n">
-        <v>144.7119948877114</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>144.7119948877114</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>144.7119948877114</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.7119948877114</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.127015186652</v>
+        <v>1681.790385646738</v>
       </c>
       <c r="C11" t="n">
-        <v>47.20655154895472</v>
+        <v>1243.647912830161</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895472</v>
+        <v>807.7381280046056</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895472</v>
+        <v>807.7381280046056</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
         <v>47.20655154895472</v>
@@ -5041,10 +5041,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
         <v>805.440802286702</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371906</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715598</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="12">
@@ -5102,40 +5102,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.2333208532364</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C13" t="n">
-        <v>393.6716093364612</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364612</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895472</v>
@@ -5208,10 +5208,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2360.327577447736</v>
+        <v>1279.031102697184</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.185104631159</v>
+        <v>1279.031102697184</v>
       </c>
       <c r="D14" t="n">
-        <v>1486.275319805604</v>
+        <v>1279.031102697184</v>
       </c>
       <c r="E14" t="n">
-        <v>1052.500574963899</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>624.6331453731068</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>225.130454052584</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.05327704358</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228009</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447736</v>
+        <v>1279.031102697184</v>
       </c>
       <c r="Y14" t="n">
-        <v>2360.327577447736</v>
+        <v>1279.031102697184</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.4293531379328</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>314.2050794533444</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>149.4638990658628</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895472</v>
@@ -5442,16 +5442,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.7831174369939</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553085</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
         <v>2274.089213540313</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1695.267182904121</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1423.240778490412</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.849023823825</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.4293531379328</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1536.32965943808</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C17" t="n">
-        <v>1536.32965943808</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D17" t="n">
-        <v>1144.298223916359</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.32965943808</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.32965943808</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043084</v>
@@ -5597,10 +5597,10 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5496021349386</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>280.4457682374011</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>103.7387141991573</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>601.5415720081295</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M19" t="n">
-        <v>1138.289667082992</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N19" t="n">
-        <v>1708.047382044526</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T19" t="n">
         <v>2118.080353351143</v>
@@ -5715,10 +5715,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1474.419173756936</v>
       </c>
       <c r="C20" t="n">
         <v>1344.758510807007</v>
@@ -5740,25 +5740,25 @@
         <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W20" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X20" t="n">
-        <v>2209.200554108492</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.200554108492</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043084</v>
@@ -5834,10 +5834,10 @@
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683665</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D22" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871985</v>
+        <v>107.884056720626</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092379</v>
+        <v>588.0160255186809</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540313</v>
@@ -5934,10 +5934,10 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
         <v>2118.080353351143</v>
@@ -5952,10 +5952,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2160.17135267245</v>
+        <v>1359.657252164034</v>
       </c>
       <c r="C23" t="n">
-        <v>1756.927255493536</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="D23" t="n">
-        <v>1321.01747066798</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E23" t="n">
-        <v>887.2427258262751</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F23" t="n">
-        <v>459.3752962354828</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G23" t="n">
         <v>59.87260491495994</v>
@@ -5989,28 +5989,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N23" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.635560339265</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P23" t="n">
-        <v>2136.030175641227</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q23" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R23" t="n">
         <v>2993.630245747997</v>
@@ -6019,22 +6019,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T23" t="n">
-        <v>2781.858994217109</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U23" t="n">
-        <v>2522.788302738623</v>
+        <v>2734.559554269511</v>
       </c>
       <c r="V23" t="n">
-        <v>2160.17135267245</v>
+        <v>2734.559554269511</v>
       </c>
       <c r="W23" t="n">
-        <v>2160.17135267245</v>
+        <v>2613.385409769977</v>
       </c>
       <c r="X23" t="n">
-        <v>2160.17135267245</v>
+        <v>2194.242946349288</v>
       </c>
       <c r="Y23" t="n">
-        <v>2160.17135267245</v>
+        <v>1785.956822648941</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M24" t="n">
-        <v>816.0537566647931</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6126,7 +6126,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D25" t="n">
         <v>766.5181902743841</v>
@@ -6135,7 +6135,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G25" t="n">
         <v>255.311952099396</v>
@@ -6150,22 +6150,22 @@
         <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>302.1580543493911</v>
+        <v>399.0682623577791</v>
       </c>
       <c r="L25" t="n">
-        <v>844.2387377356501</v>
+        <v>941.1489457440381</v>
       </c>
       <c r="M25" t="n">
-        <v>1434.326997255093</v>
+        <v>1531.237205263481</v>
       </c>
       <c r="N25" t="n">
-        <v>2004.084712216627</v>
+        <v>2100.994920225015</v>
       </c>
       <c r="O25" t="n">
-        <v>2541.51984279017</v>
+        <v>2638.430050798558</v>
       </c>
       <c r="P25" t="n">
-        <v>2739.199106976241</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1754.189096973776</v>
+        <v>1391.572146907602</v>
       </c>
       <c r="C26" t="n">
-        <v>1316.046624157199</v>
+        <v>1391.572146907602</v>
       </c>
       <c r="D26" t="n">
-        <v>880.1368393316438</v>
+        <v>955.6623620820469</v>
       </c>
       <c r="E26" t="n">
-        <v>880.1368393316438</v>
+        <v>955.6623620820469</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2694097408516</v>
+        <v>527.7949324912547</v>
       </c>
       <c r="G26" t="n">
-        <v>59.87260491495994</v>
+        <v>128.2922411707319</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6229,7 +6229,7 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>960.2456682417247</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L26" t="n">
         <v>1253.361543105625</v>
@@ -6262,16 +6262,16 @@
         <v>2993.630245747997</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.630245747997</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="W26" t="n">
-        <v>2588.77479115903</v>
+        <v>2226.157841092857</v>
       </c>
       <c r="X26" t="n">
-        <v>2588.77479115903</v>
+        <v>2226.157841092857</v>
       </c>
       <c r="Y26" t="n">
-        <v>2180.488667458684</v>
+        <v>1817.87171739251</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>555.2373584323961</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C27" t="n">
-        <v>448.7808972690384</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6906084155917</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5701937425454</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>176.186355358707</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>91.81525494836387</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
         <v>59.87260491495994</v>
@@ -6308,13 +6308,13 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647929</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6341,16 +6341,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V27" t="n">
-        <v>1143.217228760865</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W27" t="n">
-        <v>957.8944744940586</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X27" t="n">
-        <v>803.0270387329385</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.5412595121593</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="28">
@@ -6363,7 +6363,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
@@ -6375,34 +6375,34 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.3119520993959</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H28" t="n">
-        <v>122.9678914787119</v>
+        <v>122.9678914787117</v>
       </c>
       <c r="I28" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>118.778268617143</v>
       </c>
       <c r="K28" t="n">
-        <v>215.5783691847013</v>
+        <v>219.75414325177</v>
       </c>
       <c r="L28" t="n">
-        <v>757.6590525709603</v>
+        <v>761.8348266380289</v>
       </c>
       <c r="M28" t="n">
-        <v>1347.747312090403</v>
+        <v>1351.923086157471</v>
       </c>
       <c r="N28" t="n">
-        <v>1917.505027051937</v>
+        <v>1921.680801119006</v>
       </c>
       <c r="O28" t="n">
-        <v>2454.94015762548</v>
+        <v>2459.115931692549</v>
       </c>
       <c r="P28" t="n">
-        <v>2903.216107773505</v>
+        <v>2907.391881840574</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1799.858270607949</v>
+        <v>2107.721842057197</v>
       </c>
       <c r="C29" t="n">
-        <v>1799.858270607949</v>
+        <v>1669.579369240621</v>
       </c>
       <c r="D29" t="n">
-        <v>1363.948485782394</v>
+        <v>1233.669584415065</v>
       </c>
       <c r="E29" t="n">
-        <v>930.1737409406887</v>
+        <v>799.8948395733601</v>
       </c>
       <c r="F29" t="n">
-        <v>502.3063113498965</v>
+        <v>372.0274099825678</v>
       </c>
       <c r="G29" t="n">
-        <v>102.8036200293736</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6463,52 +6463,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>723.9740178625037</v>
+        <v>369.0136545322794</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417247</v>
+        <v>605.2853049115002</v>
       </c>
       <c r="L29" t="n">
-        <v>1253.361543105625</v>
+        <v>898.4011797754008</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.509431274412</v>
+        <v>1224.549067944188</v>
       </c>
       <c r="N29" t="n">
-        <v>1910.93473325089</v>
+        <v>1555.974369920665</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.890247792182</v>
+        <v>1868.929884461958</v>
       </c>
       <c r="P29" t="n">
-        <v>2490.990538971451</v>
+        <v>2136.030175641227</v>
       </c>
       <c r="Q29" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V29" t="n">
-        <v>2631.013295681823</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W29" t="n">
-        <v>2226.157841092857</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X29" t="n">
-        <v>2226.157841092857</v>
+        <v>2534.021412542105</v>
       </c>
       <c r="Y29" t="n">
-        <v>2226.157841092857</v>
+        <v>2534.021412542105</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
         <v>348.4613524870733</v>
@@ -6600,7 +6600,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
@@ -6621,25 +6621,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5783691847013</v>
+        <v>399.0682623577791</v>
       </c>
       <c r="L31" t="n">
-        <v>757.6590525709603</v>
+        <v>941.1489457440381</v>
       </c>
       <c r="M31" t="n">
-        <v>1347.747312090403</v>
+        <v>1531.237205263481</v>
       </c>
       <c r="N31" t="n">
-        <v>1917.505027051937</v>
+        <v>2100.994920225015</v>
       </c>
       <c r="O31" t="n">
-        <v>2454.94015762548</v>
+        <v>2638.430050798558</v>
       </c>
       <c r="P31" t="n">
-        <v>2903.216107773505</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.739022124069</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.739022124069</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.739022124069</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282364</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6703,7 +6703,7 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>960.2456682417247</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L32" t="n">
         <v>1253.361543105625</v>
@@ -6712,13 +6712,13 @@
         <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1927.16259597917</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>2240.118110520463</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
         <v>2707.7995967108</v>
@@ -6727,25 +6727,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2734.559554269511</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V32" t="n">
-        <v>2371.942604203337</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="W32" t="n">
-        <v>2371.942604203337</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="X32" t="n">
-        <v>1999.025145824416</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="Y32" t="n">
-        <v>1590.739022124069</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
         <v>348.4613524870733</v>
@@ -6837,7 +6837,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
@@ -6849,34 +6849,34 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G34" t="n">
-        <v>255.3119520993959</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H34" t="n">
-        <v>122.9678914787119</v>
+        <v>122.9678914787117</v>
       </c>
       <c r="I34" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>219.7541432517696</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8348266380285</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.923086157471</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N34" t="n">
-        <v>1921.680801119005</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692548</v>
+        <v>2398.068415593345</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1313.970631731594</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X35" t="n">
-        <v>2209.200554108492</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.200554108492</v>
+        <v>1740.270202216502</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>858.3289888817349</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>685.7672773649598</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>519.8892845664825</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E37" t="n">
-        <v>350.1312808172198</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>173.424226778976</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U37" t="n">
-        <v>2081.940945496479</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.98543736691</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W37" t="n">
-        <v>1522.959032953201</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.567278286614</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.147607600722</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1889.485634438363</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="C38" t="n">
-        <v>1451.343161621787</v>
+        <v>1300.4974630865</v>
       </c>
       <c r="D38" t="n">
-        <v>1015.433376796231</v>
+        <v>864.5876782609444</v>
       </c>
       <c r="E38" t="n">
-        <v>581.6586319545263</v>
+        <v>864.5876782609444</v>
       </c>
       <c r="F38" t="n">
-        <v>153.791202363734</v>
+        <v>436.7202486701521</v>
       </c>
       <c r="G38" t="n">
-        <v>153.791202363734</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7177,19 +7177,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V38" t="n">
-        <v>1889.485634438363</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W38" t="n">
-        <v>1889.485634438363</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X38" t="n">
-        <v>1889.485634438363</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y38" t="n">
-        <v>1889.485634438363</v>
+        <v>1738.639935903077</v>
       </c>
     </row>
     <row r="39">
@@ -7235,22 +7235,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,7 +7259,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
         <v>803.387703298788</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268367</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D40" t="n">
-        <v>277.6420604698897</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E40" t="n">
-        <v>107.8840567206269</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>430.2377900463799</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>554.1085916646779</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M40" t="n">
-        <v>1138.289667082993</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1708.047382044527</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>2088.067330887142</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1801.111822757573</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.028006962829</v>
+        <v>662.40439657733</v>
       </c>
       <c r="C41" t="n">
-        <v>1495.885534146253</v>
+        <v>662.40439657733</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.351417301975</v>
+        <v>662.40439657733</v>
       </c>
       <c r="E41" t="n">
-        <v>874.5766724602698</v>
+        <v>662.40439657733</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>662.40439657733</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>262.9017052568071</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>662.40439657733</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447737</v>
+        <v>662.40439657733</v>
       </c>
     </row>
     <row r="42">
@@ -7469,31 +7469,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>862.082053811994</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505235</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>483.1163363745102</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
@@ -7651,10 +7651,10 @@
         <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7663,37 +7663,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.86868437219</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>1526.86868437219</v>
+        <v>1563.440687337049</v>
       </c>
       <c r="X44" t="n">
-        <v>1107.726220951501</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y44" t="n">
-        <v>909.4159068594181</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="45">
@@ -7706,43 +7706,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>1030.637138832654</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6547859746801</v>
+        <v>858.075427315879</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6547859746801</v>
+        <v>692.1974345174017</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>522.4394307681389</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>345.7323767298951</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>180.9911963424135</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>48.64713572172943</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7812,28 +7812,28 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>828.1746199579906</v>
+        <v>733.422710770687</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
         <v>1973.653814855378</v>
@@ -7842,16 +7842,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1449.875428237533</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>1222.455757551641</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.3187674087812</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="O4" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8233,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.64570999510199</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8294,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13.31876740878118</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -8388,10 +8388,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510199</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>37.01664054300454</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3121344443094713</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>35.17551884789325</v>
+        <v>35.17551884789324</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.70450609869529</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>38.63311137860745</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>39.15679995900424</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.62629021571104</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>28.90906368303828</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>35.52699912830448</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>35.37380788730582</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.0267805239335</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.96101578689277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>39.08998604985347</v>
       </c>
       <c r="L10" t="n">
-        <v>38.46774733704544</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>27.08620285932773</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>27.90813597716947</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>38.60807313517729</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>38.9987568709191</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M16" t="n">
         <v>458.1582657371569</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7304232042861</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>410.2461643801348</v>
+        <v>444.9969971592897</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042868</v>
+        <v>263.8716243249363</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,7 +9576,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>81.1053779017102</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>545.8002937490523</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.88909899837171</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>97.88909899837108</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.217953603099716</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.217953603098977</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>81.10537790171077</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.39178053361684</v>
+        <v>545.8002937490523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>97.88909899837171</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.217953603098977</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>16.39178053361661</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603099289</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>242.7895305103166</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>158.2045317475394</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>229.6216911390746</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>263.1722038422873</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>141.4680432173446</v>
+        <v>45.75904403825018</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>144.7597890870907</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>66.17015901110756</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.63231361822163</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>116.281172929206</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>29.0271114587423</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>90.87967246293576</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23655,13 +23655,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>140.4438632048415</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.78584597273824</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>305.3969917679812</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>43.43956581079607</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,7 +23794,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>107.1269275599062</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>305.3969917679812</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>60.03778590972663</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
@@ -24147,7 +24147,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.54939188128589</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>280.8444969885387</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.034827629684879</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>199.2888960483144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -24502,7 +24502,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>353.4987433319145</v>
       </c>
       <c r="H29" t="n">
-        <v>224.5226309782591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24739,13 +24739,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>142.9561278189428</v>
       </c>
       <c r="X32" t="n">
-        <v>45.76275499135033</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>273.7472960337443</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>265.3352856806301</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.13827010588575</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>9.889104257332235</v>
       </c>
       <c r="H38" t="n">
-        <v>161.5055316348971</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>149.0473946475638</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>245.8919113014646</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>53.48613377075478</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>113.743809091021</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>118.0841085001271</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>207.8760515121814</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>88.66565849005738</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>61.03815536706749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>399577.6032089397</v>
+        <v>399577.6032089396</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>313126.4070903209</v>
+        <v>313126.4070903208</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>313126.407090321</v>
+        <v>313126.4070903208</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
+        <v>428917.8559123268</v>
+      </c>
+      <c r="D2" t="n">
         <v>428917.8559123267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>428917.8559123265</v>
       </c>
       <c r="E2" t="n">
         <v>251676.1140813077</v>
@@ -26328,31 +26328,31 @@
         <v>251676.1140813077</v>
       </c>
       <c r="G2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="H2" t="n">
-        <v>251676.1140813077</v>
+        <v>251676.1140813076</v>
       </c>
       <c r="I2" t="n">
-        <v>302600.0931006012</v>
+        <v>302600.0931006011</v>
       </c>
       <c r="J2" t="n">
         <v>302600.0931006012</v>
       </c>
       <c r="K2" t="n">
-        <v>302600.093100601</v>
+        <v>302600.0931006011</v>
       </c>
       <c r="L2" t="n">
-        <v>302600.093100601</v>
+        <v>302600.0931006012</v>
       </c>
       <c r="M2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="N2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="O2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="P2" t="n">
         <v>251676.1140813078</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9095.279978857439</v>
+        <v>9095.279978857488</v>
       </c>
       <c r="E3" t="n">
         <v>530267.1569598971</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426838</v>
+        <v>42102.11971426842</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736724</v>
+        <v>10809.82265736725</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97299.51484534086</v>
+        <v>97299.51484534083</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>302243.7051245434</v>
       </c>
       <c r="C4" t="n">
-        <v>302243.7051245433</v>
+        <v>302243.7051245434</v>
       </c>
       <c r="D4" t="n">
         <v>299606.3600973404</v>
@@ -26438,13 +26438,13 @@
         <v>14728.7909942616</v>
       </c>
       <c r="I4" t="n">
-        <v>40805.18316884372</v>
+        <v>40805.18316884375</v>
       </c>
       <c r="J4" t="n">
         <v>40805.18316884375</v>
       </c>
       <c r="K4" t="n">
-        <v>40805.18316884375</v>
+        <v>40805.18316884374</v>
       </c>
       <c r="L4" t="n">
         <v>40805.18316884375</v>
@@ -26453,13 +26453,13 @@
         <v>14728.7909942616</v>
       </c>
       <c r="N4" t="n">
+        <v>14728.79099426159</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14728.79099426159</v>
+      </c>
+      <c r="P4" t="n">
         <v>14728.7909942616</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14728.7909942616</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14728.79099426161</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36139.55218528966</v>
       </c>
       <c r="D5" t="n">
-        <v>36371.07234205857</v>
+        <v>36371.07234205858</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
@@ -26505,13 +26505,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76688.99083619735</v>
+        <v>76688.99083619729</v>
       </c>
       <c r="C6" t="n">
         <v>90534.59860249372</v>
       </c>
       <c r="D6" t="n">
-        <v>83845.14349407011</v>
+        <v>83845.14349407022</v>
       </c>
       <c r="E6" t="n">
-        <v>-339370.9150824889</v>
+        <v>-339924.7955257109</v>
       </c>
       <c r="F6" t="n">
-        <v>190896.2418774083</v>
+        <v>190342.3614341863</v>
       </c>
       <c r="G6" t="n">
-        <v>190896.2418774083</v>
+        <v>190342.3614341864</v>
       </c>
       <c r="H6" t="n">
-        <v>190896.2418774083</v>
+        <v>190342.3614341863</v>
       </c>
       <c r="I6" t="n">
-        <v>164015.5084496873</v>
+        <v>163620.7654409005</v>
       </c>
       <c r="J6" t="n">
-        <v>195307.8055065884</v>
+        <v>194913.0624978018</v>
       </c>
       <c r="K6" t="n">
-        <v>206117.6281639555</v>
+        <v>205722.8851551689</v>
       </c>
       <c r="L6" t="n">
-        <v>206117.6281639555</v>
+        <v>205722.8851551691</v>
       </c>
       <c r="M6" t="n">
-        <v>93596.72703206749</v>
+        <v>93042.84658884555</v>
       </c>
       <c r="N6" t="n">
-        <v>190896.2418774084</v>
+        <v>190342.3614341863</v>
       </c>
       <c r="O6" t="n">
-        <v>190896.2418774083</v>
+        <v>190342.3614341863</v>
       </c>
       <c r="P6" t="n">
-        <v>190896.2418774083</v>
+        <v>190342.3614341864</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62019067747309</v>
+        <v>10.62019067747315</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932211</v>
@@ -26752,34 +26752,34 @@
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
         <v>590.081894361934</v>
@@ -26804,10 +26804,10 @@
         <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.62019067747309</v>
+        <v>10.62019067747315</v>
       </c>
       <c r="E3" t="n">
-        <v>456.081737415748</v>
+        <v>456.0817374157479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750651</v>
+        <v>158.3256670750652</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>390.4412242393415</v>
+        <v>390.4412242393414</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27463,19 +27463,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>57.74913128065023</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003292614422306883</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>138.1829268457693</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>134.4458397173453</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>102.1128978822671</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27593,10 +27593,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27712,7 +27712,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.50588012857342</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>92.48660254844231</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>116.9285067192467</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27779,22 +27779,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>148.7487506218504</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27940,10 +27940,10 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878848</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>46.15974531573794</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.50839540747357</v>
@@ -27985,22 +27985,22 @@
         <v>62.39657650139227</v>
       </c>
       <c r="T9" t="n">
-        <v>87.46977913581293</v>
+        <v>128.7847821833403</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2566756253327</v>
+        <v>174.57167867286</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="10">
@@ -28019,16 +28019,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>152.012706156882</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6012080133865</v>
+        <v>163.9162110609138</v>
       </c>
       <c r="H10" t="n">
-        <v>97.01787826518927</v>
+        <v>138.3328813127166</v>
       </c>
       <c r="I10" t="n">
         <v>87.19742201567664</v>
@@ -28070,13 +28070,13 @@
         <v>275.6476261305066</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>268.0382354933857</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04269423387928877</v>
+        <v>0.04269423387928901</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4372423227162662</v>
+        <v>0.4372423227162687</v>
       </c>
       <c r="I8" t="n">
-        <v>1.645969451631282</v>
+        <v>1.645969451631291</v>
       </c>
       <c r="J8" t="n">
-        <v>3.623619732712289</v>
+        <v>3.623619732712309</v>
       </c>
       <c r="K8" t="n">
-        <v>5.430866652822584</v>
+        <v>5.430866652822614</v>
       </c>
       <c r="L8" t="n">
-        <v>6.737470312905868</v>
+        <v>6.737470312905906</v>
       </c>
       <c r="M8" t="n">
-        <v>7.49673389465667</v>
+        <v>7.496733894656711</v>
       </c>
       <c r="N8" t="n">
-        <v>7.6180388866662</v>
+        <v>7.618038886666242</v>
       </c>
       <c r="O8" t="n">
-        <v>7.193498098529021</v>
+        <v>7.193498098529061</v>
       </c>
       <c r="P8" t="n">
-        <v>6.139484199634079</v>
+        <v>6.139484199634113</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.610496948832049</v>
+        <v>4.610496948832074</v>
       </c>
       <c r="R8" t="n">
-        <v>2.681891668919876</v>
+        <v>2.68189166891989</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9728948545242939</v>
+        <v>0.9728948545242992</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1868940088065867</v>
+        <v>0.1868940088065877</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003415538710343101</v>
+        <v>0.00341553871034312</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02284342900437608</v>
+        <v>0.02284342900437621</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2206194327527901</v>
+        <v>0.2206194327527913</v>
       </c>
       <c r="I9" t="n">
-        <v>0.786495253001545</v>
+        <v>0.7864952530015493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.158203088523093</v>
+        <v>2.158203088523105</v>
       </c>
       <c r="K9" t="n">
-        <v>3.68871283181629</v>
+        <v>3.688712831816311</v>
       </c>
       <c r="L9" t="n">
-        <v>4.959929617814201</v>
+        <v>4.959929617814229</v>
       </c>
       <c r="M9" t="n">
-        <v>5.788003919222834</v>
+        <v>5.788003919222866</v>
       </c>
       <c r="N9" t="n">
-        <v>5.941195160221479</v>
+        <v>5.941195160221512</v>
       </c>
       <c r="O9" t="n">
-        <v>5.435032864913988</v>
+        <v>5.435032864914018</v>
       </c>
       <c r="P9" t="n">
-        <v>4.362093035054938</v>
+        <v>4.362093035054962</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.915943674312989</v>
+        <v>2.915943674313005</v>
       </c>
       <c r="R9" t="n">
-        <v>1.418296407833105</v>
+        <v>1.418296407833113</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4243066747084765</v>
+        <v>0.4243066747084788</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09207504936412987</v>
+        <v>0.09207504936413038</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001502857171340532</v>
+        <v>0.001502857171340541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01915116351675475</v>
+        <v>0.01915116351675486</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1702712538126014</v>
+        <v>0.1702712538126024</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5759277173947703</v>
+        <v>0.5759277173947734</v>
       </c>
       <c r="J10" t="n">
-        <v>1.353987260634561</v>
+        <v>1.353987260634568</v>
       </c>
       <c r="K10" t="n">
-        <v>2.22501699767387</v>
+        <v>2.225016997673882</v>
       </c>
       <c r="L10" t="n">
-        <v>2.847255710481884</v>
+        <v>2.8472557104819</v>
       </c>
       <c r="M10" t="n">
-        <v>3.002031931994565</v>
+        <v>3.002031931994581</v>
       </c>
       <c r="N10" t="n">
-        <v>2.930650322523027</v>
+        <v>2.930650322523043</v>
       </c>
       <c r="O10" t="n">
-        <v>2.706929912350027</v>
+        <v>2.706929912350042</v>
       </c>
       <c r="P10" t="n">
-        <v>2.316246176608228</v>
+        <v>2.316246176608241</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.603648792298437</v>
+        <v>1.603648792298445</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8611059523078998</v>
+        <v>0.8611059523079045</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3337525496510804</v>
+        <v>0.3337525496510823</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08182769866249755</v>
+        <v>0.08182769866249801</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001044608919095715</v>
+        <v>0.001044608919095721</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
@@ -32092,7 +32092,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,28 +32308,28 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,31 +32545,31 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32581,10 +32581,10 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646693</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -34240,10 +34240,10 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.3187674087812</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N3" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="O4" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.64570999510199</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35014,28 +35014,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13.31876740878118</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35108,10 +35108,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510199</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.233347972499884</v>
+        <v>1.233347972499893</v>
       </c>
       <c r="J8" t="n">
-        <v>3.62361973271229</v>
+        <v>40.64026027571685</v>
       </c>
       <c r="K8" t="n">
-        <v>5.430866652822584</v>
+        <v>5.430866652822615</v>
       </c>
       <c r="L8" t="n">
-        <v>6.737470312905867</v>
+        <v>6.737470312905906</v>
       </c>
       <c r="M8" t="n">
-        <v>7.496733894656671</v>
+        <v>7.496733894656714</v>
       </c>
       <c r="N8" t="n">
-        <v>7.618038886666199</v>
+        <v>7.618038886666241</v>
       </c>
       <c r="O8" t="n">
-        <v>7.505632542838491</v>
+        <v>7.193498098529062</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>4.610496948832079</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.11343783932235</v>
+        <v>27.11343783932236</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752733</v>
+        <v>2.158203088523106</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752733</v>
+        <v>3.688712831816311</v>
       </c>
       <c r="L9" t="n">
-        <v>4.959929617814197</v>
+        <v>33.86899330085252</v>
       </c>
       <c r="M9" t="n">
-        <v>5.788003919222831</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N9" t="n">
-        <v>5.941195160221469</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O9" t="n">
-        <v>5.435032864913978</v>
+        <v>5.435032864914007</v>
       </c>
       <c r="P9" t="n">
-        <v>4.362093035054926</v>
+        <v>4.362093035054954</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.915943674312985</v>
+        <v>2.915943674313013</v>
       </c>
       <c r="R9" t="n">
-        <v>24.44507693176661</v>
+        <v>1.418296407833111</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>41.31500304752733</v>
+        <v>1.353987260634568</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752733</v>
+        <v>2.847255710481903</v>
       </c>
       <c r="M10" t="n">
-        <v>30.08823479132229</v>
+        <v>3.00203193199458</v>
       </c>
       <c r="N10" t="n">
-        <v>2.930650322523036</v>
+        <v>30.83878629969252</v>
       </c>
       <c r="O10" t="n">
-        <v>2.706929912350034</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
-        <v>2.316246176608217</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.603648792298429</v>
+        <v>1.603648792298458</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916794</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35497,7 +35497,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35576,13 +35576,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512691</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
@@ -35731,7 +35731,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35740,7 +35740,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -35810,19 +35810,19 @@
         <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M16" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P16" t="n">
-        <v>258.5173486362896</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
         <v>70.4719911420766</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125706</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>542.169793004912</v>
+        <v>576.9206257840668</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409514</v>
+        <v>388.9936461616009</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
@@ -36366,22 +36366,22 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>350.903651820164</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>748.4075614369995</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36448,10 +36448,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>195.6669783595416</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,13 +36533,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>199.6760244303746</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36673,22 +36673,22 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646693</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>101.9958329642696</v>
       </c>
       <c r="L28" t="n">
         <v>547.556245844706</v>
@@ -36764,19 +36764,19 @@
         <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68994474517558</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>598.8903663599629</v>
+        <v>240.3445448142817</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
@@ -36846,16 +36846,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.999048221564</v>
+        <v>748.4075614369995</v>
       </c>
       <c r="R29" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>195.6669783595416</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
@@ -37001,19 +37001,19 @@
         <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68994474517558</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>351.1648128330887</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642692</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893358</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485105</v>
+        <v>344.5764559423201</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125705</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>277.1599674523493</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37560,13 +37560,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184531</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37630,7 +37630,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
@@ -37703,22 +37703,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3995705002445</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,13 +37794,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>388.2942256789519</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
         <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>266.5900650540092</v>
+        <v>170.8810658749147</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
